--- a/Code/Results/Cases/Case_5_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_149/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.061545494721817</v>
+        <v>1.08769370117338</v>
       </c>
       <c r="D2">
-        <v>1.075383502213926</v>
+        <v>1.090087753345537</v>
       </c>
       <c r="E2">
-        <v>1.06784017187107</v>
+        <v>1.09002331360952</v>
       </c>
       <c r="F2">
-        <v>1.079633539989565</v>
+        <v>1.10124700516267</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.080500494744262</v>
+        <v>1.069491623842711</v>
       </c>
       <c r="J2">
-        <v>1.082029251517351</v>
+        <v>1.092537525210105</v>
       </c>
       <c r="K2">
-        <v>1.085883791043828</v>
+        <v>1.092736205283927</v>
       </c>
       <c r="L2">
-        <v>1.078428871386705</v>
+        <v>1.092671930797377</v>
       </c>
       <c r="M2">
-        <v>1.090084688808791</v>
+        <v>1.103867154529329</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.068636665358102</v>
+        <v>1.089082650834222</v>
       </c>
       <c r="D3">
-        <v>1.081252080940573</v>
+        <v>1.091243477302077</v>
       </c>
       <c r="E3">
-        <v>1.074132821545714</v>
+        <v>1.091276826003911</v>
       </c>
       <c r="F3">
-        <v>1.086145486101387</v>
+        <v>1.102559642743687</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.08372221248465</v>
+        <v>1.070024886520648</v>
       </c>
       <c r="J3">
-        <v>1.087416343359563</v>
+        <v>1.093588501226807</v>
       </c>
       <c r="K3">
-        <v>1.090941077836055</v>
+        <v>1.093711178777862</v>
       </c>
       <c r="L3">
-        <v>1.083897521538083</v>
+        <v>1.09374444816225</v>
       </c>
       <c r="M3">
-        <v>1.095783151750874</v>
+        <v>1.105000724982896</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.073094722724419</v>
+        <v>1.089980194183306</v>
       </c>
       <c r="D4">
-        <v>1.084943434726962</v>
+        <v>1.091990209655082</v>
       </c>
       <c r="E4">
-        <v>1.078089415231579</v>
+        <v>1.092086550247944</v>
       </c>
       <c r="F4">
-        <v>1.090243168721949</v>
+        <v>1.10340800427791</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.085735714841602</v>
+        <v>1.070368042182545</v>
       </c>
       <c r="J4">
-        <v>1.090797011508477</v>
+        <v>1.094266829304009</v>
       </c>
       <c r="K4">
-        <v>1.094114365305279</v>
+        <v>1.094340366333619</v>
       </c>
       <c r="L4">
-        <v>1.087328584643758</v>
+        <v>1.094436489356092</v>
       </c>
       <c r="M4">
-        <v>1.099362048392699</v>
+        <v>1.105732658577304</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.07493930527579</v>
+        <v>1.090357239665439</v>
       </c>
       <c r="D5">
-        <v>1.086471176992984</v>
+        <v>1.092303876991762</v>
       </c>
       <c r="E5">
-        <v>1.079726589546578</v>
+        <v>1.092426632239522</v>
       </c>
       <c r="F5">
-        <v>1.091939489410625</v>
+        <v>1.103764420108819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.086565931694049</v>
+        <v>1.070511852139323</v>
       </c>
       <c r="J5">
-        <v>1.09219431264261</v>
+        <v>1.094551589998475</v>
       </c>
       <c r="K5">
-        <v>1.095425843091874</v>
+        <v>1.094604477091011</v>
       </c>
       <c r="L5">
-        <v>1.088746522766618</v>
+        <v>1.094726961304533</v>
       </c>
       <c r="M5">
-        <v>1.100841954460882</v>
+        <v>1.10603999383335</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.075247329103474</v>
+        <v>1.090420530899812</v>
       </c>
       <c r="D6">
-        <v>1.086726313528665</v>
+        <v>1.092356528048977</v>
       </c>
       <c r="E6">
-        <v>1.079999981817262</v>
+        <v>1.092483714519827</v>
       </c>
       <c r="F6">
-        <v>1.092222803537756</v>
+        <v>1.103824250229936</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.086704396781013</v>
+        <v>1.070535971988043</v>
       </c>
       <c r="J6">
-        <v>1.092427556540617</v>
+        <v>1.094599378744006</v>
       </c>
       <c r="K6">
-        <v>1.095644754302262</v>
+        <v>1.094648799121889</v>
       </c>
       <c r="L6">
-        <v>1.088983200079013</v>
+        <v>1.094775705851037</v>
       </c>
       <c r="M6">
-        <v>1.101089026586576</v>
+        <v>1.106091575227244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.073119484307327</v>
+        <v>1.089985233383666</v>
       </c>
       <c r="D7">
-        <v>1.084963941586223</v>
+        <v>1.091994401905895</v>
       </c>
       <c r="E7">
-        <v>1.078111392329719</v>
+        <v>1.092091095715464</v>
       </c>
       <c r="F7">
-        <v>1.090265936760936</v>
+        <v>1.103412767642632</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.085746871144654</v>
+        <v>1.070369965553977</v>
       </c>
       <c r="J7">
-        <v>1.090815774781757</v>
+        <v>1.094270635889947</v>
       </c>
       <c r="K7">
-        <v>1.094131976565761</v>
+        <v>1.094343896960258</v>
       </c>
       <c r="L7">
-        <v>1.087347625800813</v>
+        <v>1.094440372466914</v>
       </c>
       <c r="M7">
-        <v>1.099381918246333</v>
+        <v>1.105736766652964</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.063970015508904</v>
+        <v>1.088163355009004</v>
       </c>
       <c r="D8">
-        <v>1.077389565810908</v>
+        <v>1.090478565495781</v>
       </c>
       <c r="E8">
-        <v>1.069991523824539</v>
+        <v>1.090447233056691</v>
       </c>
       <c r="F8">
-        <v>1.081859188708706</v>
+        <v>1.10169082764301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.081604512025569</v>
+        <v>1.06967223751798</v>
       </c>
       <c r="J8">
-        <v>1.083872391659213</v>
+        <v>1.092893066923424</v>
       </c>
       <c r="K8">
-        <v>1.087614172370478</v>
+        <v>1.093066053436526</v>
       </c>
       <c r="L8">
-        <v>1.080300079784951</v>
+        <v>1.093034799375435</v>
       </c>
       <c r="M8">
-        <v>1.092033760827693</v>
+        <v>1.104250576100674</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.046767923910346</v>
+        <v>1.084943533962805</v>
       </c>
       <c r="D9">
-        <v>1.06316765281814</v>
+        <v>1.087798876399323</v>
       </c>
       <c r="E9">
-        <v>1.054732341190586</v>
+        <v>1.087539736383977</v>
       </c>
       <c r="F9">
-        <v>1.066086967155103</v>
+        <v>1.09864865809726</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.073721701783938</v>
+        <v>1.068428084321367</v>
       </c>
       <c r="J9">
-        <v>1.070770794259729</v>
+        <v>1.090452223236231</v>
       </c>
       <c r="K9">
-        <v>1.075312755086246</v>
+        <v>1.090801249372904</v>
       </c>
       <c r="L9">
-        <v>1.066995726245596</v>
+        <v>1.090542869471421</v>
       </c>
       <c r="M9">
-        <v>1.078191683422278</v>
+        <v>1.10161955600817</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.034447786544477</v>
+        <v>1.082790291539148</v>
       </c>
       <c r="D10">
-        <v>1.052999950297005</v>
+        <v>1.086006386852132</v>
       </c>
       <c r="E10">
-        <v>1.043812832101636</v>
+        <v>1.085593840315152</v>
       </c>
       <c r="F10">
-        <v>1.054818329182744</v>
+        <v>1.096614941751934</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.068014299755588</v>
+        <v>1.067588634806157</v>
       </c>
       <c r="J10">
-        <v>1.06135832214901</v>
+        <v>1.088815723389464</v>
       </c>
       <c r="K10">
-        <v>1.066473957928795</v>
+        <v>1.089282343476879</v>
       </c>
       <c r="L10">
-        <v>1.057433661659254</v>
+        <v>1.088871126390436</v>
       </c>
       <c r="M10">
-        <v>1.068263664807744</v>
+        <v>1.099857087590932</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.028878176829511</v>
+        <v>1.081856247571994</v>
       </c>
       <c r="D11">
-        <v>1.048409006173169</v>
+        <v>1.085228731714012</v>
       </c>
       <c r="E11">
-        <v>1.038879668394095</v>
+        <v>1.084749383451912</v>
       </c>
       <c r="F11">
-        <v>1.049731773730604</v>
+        <v>1.095732924199066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.065420162434587</v>
+        <v>1.067222734341838</v>
       </c>
       <c r="J11">
-        <v>1.05709705272427</v>
+        <v>1.08810484195476</v>
       </c>
       <c r="K11">
-        <v>1.062472309811191</v>
+        <v>1.088622442699818</v>
       </c>
       <c r="L11">
-        <v>1.053103818985835</v>
+        <v>1.088144699399798</v>
       </c>
       <c r="M11">
-        <v>1.06377304746354</v>
+        <v>1.099091851500841</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.026770880252696</v>
+        <v>1.081509043461105</v>
       </c>
       <c r="D12">
-        <v>1.046672962265736</v>
+        <v>1.084939646304387</v>
       </c>
       <c r="E12">
-        <v>1.037013770010246</v>
+        <v>1.084435427519777</v>
       </c>
       <c r="F12">
-        <v>1.047808513930373</v>
+        <v>1.095405086678063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.064436621360459</v>
+        <v>1.067086457022163</v>
       </c>
       <c r="J12">
-        <v>1.055483926995546</v>
+        <v>1.087840443207347</v>
       </c>
       <c r="K12">
-        <v>1.060957468194663</v>
+        <v>1.088376990194114</v>
       </c>
       <c r="L12">
-        <v>1.05146461560688</v>
+        <v>1.087874483210818</v>
       </c>
       <c r="M12">
-        <v>1.062073724734329</v>
+        <v>1.098807291440661</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.027224700321534</v>
+        <v>1.081583531733422</v>
       </c>
       <c r="D13">
-        <v>1.047046784778866</v>
+        <v>1.08500166657975</v>
       </c>
       <c r="E13">
-        <v>1.037415574740173</v>
+        <v>1.084502785218741</v>
       </c>
       <c r="F13">
-        <v>1.048222641200174</v>
+        <v>1.095475418850089</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.064648523976331</v>
+        <v>1.067115705562606</v>
       </c>
       <c r="J13">
-        <v>1.05583136113491</v>
+        <v>1.087897173366029</v>
       </c>
       <c r="K13">
-        <v>1.061283733516039</v>
+        <v>1.088429655870355</v>
       </c>
       <c r="L13">
-        <v>1.051817671548122</v>
+        <v>1.087932463187189</v>
       </c>
       <c r="M13">
-        <v>1.062439695522693</v>
+        <v>1.09886834498631</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.028704792274458</v>
+        <v>1.081827552886721</v>
       </c>
       <c r="D14">
-        <v>1.04826614720597</v>
+        <v>1.085204840538085</v>
       </c>
       <c r="E14">
-        <v>1.038726132935364</v>
+        <v>1.084723437646993</v>
       </c>
       <c r="F14">
-        <v>1.049573504934092</v>
+        <v>1.095705829506594</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.065339279278912</v>
+        <v>1.067211477091692</v>
       </c>
       <c r="J14">
-        <v>1.0569643443922</v>
+        <v>1.088082993755154</v>
       </c>
       <c r="K14">
-        <v>1.062347686928638</v>
+        <v>1.088602160400636</v>
       </c>
       <c r="L14">
-        <v>1.052968967658452</v>
+        <v>1.088122371210297</v>
       </c>
       <c r="M14">
-        <v>1.063633235150303</v>
+        <v>1.099068336182128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.029611522183489</v>
+        <v>1.081977867902005</v>
       </c>
       <c r="D15">
-        <v>1.049013280992523</v>
+        <v>1.085329992135976</v>
       </c>
       <c r="E15">
-        <v>1.039529085070109</v>
+        <v>1.084859350674372</v>
       </c>
       <c r="F15">
-        <v>1.050401237977769</v>
+        <v>1.09584776419556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.065762182687516</v>
+        <v>1.067270436555801</v>
       </c>
       <c r="J15">
-        <v>1.057658320384826</v>
+        <v>1.088197437859189</v>
       </c>
       <c r="K15">
-        <v>1.062999381652399</v>
+        <v>1.088708401471828</v>
       </c>
       <c r="L15">
-        <v>1.053674145309528</v>
+        <v>1.088239328116084</v>
       </c>
       <c r="M15">
-        <v>1.06436438566841</v>
+        <v>1.099191515148505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.034812209375551</v>
+        <v>1.082852245072519</v>
       </c>
       <c r="D16">
-        <v>1.053300464841515</v>
+        <v>1.086057965330739</v>
       </c>
       <c r="E16">
-        <v>1.044135687946715</v>
+        <v>1.085649844208363</v>
       </c>
       <c r="F16">
-        <v>1.055151314147885</v>
+        <v>1.096673448252684</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.068183751817961</v>
+        <v>1.067612867311857</v>
       </c>
       <c r="J16">
-        <v>1.061637018483824</v>
+        <v>1.08886285405463</v>
       </c>
       <c r="K16">
-        <v>1.06673567391063</v>
+        <v>1.089326092065071</v>
       </c>
       <c r="L16">
-        <v>1.057716825963263</v>
+        <v>1.088919282731687</v>
       </c>
       <c r="M16">
-        <v>1.068557446079366</v>
+        <v>1.099907829593193</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.038009429969366</v>
+        <v>1.08340026530903</v>
       </c>
       <c r="D17">
-        <v>1.055937640465552</v>
+        <v>1.086514199813277</v>
       </c>
       <c r="E17">
-        <v>1.046968604878375</v>
+        <v>1.086145194799401</v>
       </c>
       <c r="F17">
-        <v>1.058073599970555</v>
+        <v>1.097190997781443</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.069668849336411</v>
+        <v>1.067827016842274</v>
       </c>
       <c r="J17">
-        <v>1.064081442869957</v>
+        <v>1.089279641624419</v>
       </c>
       <c r="K17">
-        <v>1.069031156011736</v>
+        <v>1.089712959486816</v>
       </c>
       <c r="L17">
-        <v>1.060200343681685</v>
+        <v>1.089345113345133</v>
       </c>
       <c r="M17">
-        <v>1.07113463818233</v>
+        <v>1.100356595166452</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.039851885401647</v>
+        <v>1.083719755015804</v>
       </c>
       <c r="D18">
-        <v>1.05745787827369</v>
+        <v>1.086780169730763</v>
       </c>
       <c r="E18">
-        <v>1.048601422809059</v>
+        <v>1.086433944296535</v>
       </c>
       <c r="F18">
-        <v>1.059758335214214</v>
+        <v>1.097492740505547</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.070523345183656</v>
+        <v>1.067951693999116</v>
       </c>
       <c r="J18">
-        <v>1.065489503714145</v>
+        <v>1.089522528464413</v>
       </c>
       <c r="K18">
-        <v>1.070353411438886</v>
+        <v>1.089938400330993</v>
       </c>
       <c r="L18">
-        <v>1.061630843074018</v>
+        <v>1.089593247361876</v>
       </c>
       <c r="M18">
-        <v>1.072619556865975</v>
+        <v>1.10061815263569</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.04047640169918</v>
+        <v>1.083828665608351</v>
       </c>
       <c r="D19">
-        <v>1.057973260496513</v>
+        <v>1.086870834335771</v>
       </c>
       <c r="E19">
-        <v>1.049154928440495</v>
+        <v>1.086532370040521</v>
       </c>
       <c r="F19">
-        <v>1.060329509152513</v>
+        <v>1.097595604227403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.070812758553101</v>
+        <v>1.06799416631878</v>
       </c>
       <c r="J19">
-        <v>1.065966677333414</v>
+        <v>1.089605309731287</v>
       </c>
       <c r="K19">
-        <v>1.070801504479667</v>
+        <v>1.090015233953675</v>
       </c>
       <c r="L19">
-        <v>1.0621156069609</v>
+        <v>1.089677813129164</v>
       </c>
       <c r="M19">
-        <v>1.07312284061214</v>
+        <v>1.100707303231884</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.037668740321068</v>
+        <v>1.083341484651406</v>
       </c>
       <c r="D20">
-        <v>1.055656573417298</v>
+        <v>1.086465265096753</v>
       </c>
       <c r="E20">
-        <v>1.046666702947027</v>
+        <v>1.086092067044369</v>
       </c>
       <c r="F20">
-        <v>1.057762131683825</v>
+        <v>1.097135483639104</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.069510736743017</v>
+        <v>1.067804064710209</v>
       </c>
       <c r="J20">
-        <v>1.063821029744968</v>
+        <v>1.089234946881591</v>
       </c>
       <c r="K20">
-        <v>1.068786611178368</v>
+        <v>1.089671474276734</v>
       </c>
       <c r="L20">
-        <v>1.05993577410293</v>
+        <v>1.089299451213749</v>
       </c>
       <c r="M20">
-        <v>1.070860041282426</v>
+        <v>1.100308467584741</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.028270032473128</v>
+        <v>1.0817557019326</v>
       </c>
       <c r="D21">
-        <v>1.047907945994496</v>
+        <v>1.085145017251644</v>
       </c>
       <c r="E21">
-        <v>1.038341154462408</v>
+        <v>1.084658468978575</v>
       </c>
       <c r="F21">
-        <v>1.049176668558702</v>
+        <v>1.095637985346601</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.06513643322846</v>
+        <v>1.067183284880048</v>
       </c>
       <c r="J21">
-        <v>1.056631566390608</v>
+        <v>1.08802828386827</v>
       </c>
       <c r="K21">
-        <v>1.062035184026875</v>
+        <v>1.088551371429079</v>
       </c>
       <c r="L21">
-        <v>1.052630814024893</v>
+        <v>1.088066458810186</v>
       </c>
       <c r="M21">
-        <v>1.063282653366037</v>
+        <v>1.099009452562809</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.022136077611414</v>
+        <v>1.080757157847673</v>
       </c>
       <c r="D22">
-        <v>1.042856633030398</v>
+        <v>1.084313593747886</v>
       </c>
       <c r="E22">
-        <v>1.032911124725992</v>
+        <v>1.083755445196545</v>
       </c>
       <c r="F22">
-        <v>1.043580962630131</v>
+        <v>1.094695190719549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.062269743620866</v>
+        <v>1.066790859226767</v>
       </c>
       <c r="J22">
-        <v>1.051934532991203</v>
+        <v>1.087267604020677</v>
       </c>
       <c r="K22">
-        <v>1.057624357422054</v>
+        <v>1.087845172077838</v>
       </c>
       <c r="L22">
-        <v>1.047857633948051</v>
+        <v>1.087288974939132</v>
       </c>
       <c r="M22">
-        <v>1.058335838861931</v>
+        <v>1.098190871706243</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.025410271515797</v>
+        <v>1.081286649388852</v>
       </c>
       <c r="D23">
-        <v>1.045552348501747</v>
+        <v>1.08475447494907</v>
       </c>
       <c r="E23">
-        <v>1.035809205666909</v>
+        <v>1.084234314892657</v>
       </c>
       <c r="F23">
-        <v>1.04656710472971</v>
+        <v>1.095195105197542</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.063801018552547</v>
+        <v>1.06699909314765</v>
       </c>
       <c r="J23">
-        <v>1.054442158350974</v>
+        <v>1.087671046417906</v>
       </c>
       <c r="K23">
-        <v>1.059979175381715</v>
+        <v>1.088219727797427</v>
       </c>
       <c r="L23">
-        <v>1.050405973513507</v>
+        <v>1.087701349238954</v>
       </c>
       <c r="M23">
-        <v>1.06097646732354</v>
+        <v>1.098624993012471</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.037822752383995</v>
+        <v>1.083368045598099</v>
       </c>
       <c r="D24">
-        <v>1.055783630904541</v>
+        <v>1.086487377033222</v>
       </c>
       <c r="E24">
-        <v>1.04680317972503</v>
+        <v>1.086116073746176</v>
       </c>
       <c r="F24">
-        <v>1.05790293173138</v>
+        <v>1.097160568507708</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.069582217174741</v>
+        <v>1.067814436509347</v>
       </c>
       <c r="J24">
-        <v>1.063938753840435</v>
+        <v>1.089255143186169</v>
       </c>
       <c r="K24">
-        <v>1.068897161781145</v>
+        <v>1.089690220313364</v>
       </c>
       <c r="L24">
-        <v>1.060055377442925</v>
+        <v>1.089320084724452</v>
       </c>
       <c r="M24">
-        <v>1.070984176211367</v>
+        <v>1.100330214984585</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.051355180540546</v>
+        <v>1.085777089221581</v>
       </c>
       <c r="D25">
-        <v>1.066957515059189</v>
+        <v>1.088492684425885</v>
       </c>
       <c r="E25">
-        <v>1.058800257608999</v>
+        <v>1.088292705006486</v>
       </c>
       <c r="F25">
-        <v>1.07028860509649</v>
+        <v>1.099436097536459</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.075834519408588</v>
+        <v>1.068751481545062</v>
       </c>
       <c r="J25">
-        <v>1.074269766253877</v>
+        <v>1.091084854174533</v>
       </c>
       <c r="K25">
-        <v>1.07859828637451</v>
+        <v>1.091388330432066</v>
       </c>
       <c r="L25">
-        <v>1.070549539123641</v>
+        <v>1.091188915224357</v>
       </c>
       <c r="M25">
-        <v>1.081885661248221</v>
+        <v>1.102301207566204</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_149/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.08769370117338</v>
+        <v>1.061545494721814</v>
       </c>
       <c r="D2">
-        <v>1.090087753345537</v>
+        <v>1.075383502213923</v>
       </c>
       <c r="E2">
-        <v>1.09002331360952</v>
+        <v>1.067840171871067</v>
       </c>
       <c r="F2">
-        <v>1.10124700516267</v>
+        <v>1.079633539989562</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069491623842711</v>
+        <v>1.08050049474426</v>
       </c>
       <c r="J2">
-        <v>1.092537525210105</v>
+        <v>1.082029251517348</v>
       </c>
       <c r="K2">
-        <v>1.092736205283927</v>
+        <v>1.085883791043825</v>
       </c>
       <c r="L2">
-        <v>1.092671930797377</v>
+        <v>1.078428871386702</v>
       </c>
       <c r="M2">
-        <v>1.103867154529329</v>
+        <v>1.090084688808788</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.089082650834222</v>
+        <v>1.0686366653581</v>
       </c>
       <c r="D3">
-        <v>1.091243477302077</v>
+        <v>1.081252080940571</v>
       </c>
       <c r="E3">
-        <v>1.091276826003911</v>
+        <v>1.074132821545712</v>
       </c>
       <c r="F3">
-        <v>1.102559642743687</v>
+        <v>1.086145486101385</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070024886520648</v>
+        <v>1.083722212484649</v>
       </c>
       <c r="J3">
-        <v>1.093588501226807</v>
+        <v>1.08741634335956</v>
       </c>
       <c r="K3">
-        <v>1.093711178777862</v>
+        <v>1.090941077836052</v>
       </c>
       <c r="L3">
-        <v>1.09374444816225</v>
+        <v>1.083897521538081</v>
       </c>
       <c r="M3">
-        <v>1.105000724982896</v>
+        <v>1.095783151750871</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.089980194183306</v>
+        <v>1.073094722724416</v>
       </c>
       <c r="D4">
-        <v>1.091990209655082</v>
+        <v>1.08494343472696</v>
       </c>
       <c r="E4">
-        <v>1.092086550247944</v>
+        <v>1.078089415231577</v>
       </c>
       <c r="F4">
-        <v>1.10340800427791</v>
+        <v>1.090243168721947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070368042182545</v>
+        <v>1.0857357148416</v>
       </c>
       <c r="J4">
-        <v>1.094266829304009</v>
+        <v>1.090797011508474</v>
       </c>
       <c r="K4">
-        <v>1.094340366333619</v>
+        <v>1.094114365305277</v>
       </c>
       <c r="L4">
-        <v>1.094436489356092</v>
+        <v>1.087328584643756</v>
       </c>
       <c r="M4">
-        <v>1.105732658577304</v>
+        <v>1.099362048392697</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.090357239665439</v>
+        <v>1.074939305275789</v>
       </c>
       <c r="D5">
-        <v>1.092303876991762</v>
+        <v>1.086471176992983</v>
       </c>
       <c r="E5">
-        <v>1.092426632239522</v>
+        <v>1.079726589546577</v>
       </c>
       <c r="F5">
-        <v>1.103764420108819</v>
+        <v>1.091939489410624</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070511852139323</v>
+        <v>1.086565931694048</v>
       </c>
       <c r="J5">
-        <v>1.094551589998475</v>
+        <v>1.092194312642609</v>
       </c>
       <c r="K5">
-        <v>1.094604477091011</v>
+        <v>1.095425843091874</v>
       </c>
       <c r="L5">
-        <v>1.094726961304533</v>
+        <v>1.088746522766617</v>
       </c>
       <c r="M5">
-        <v>1.10603999383335</v>
+        <v>1.100841954460881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.090420530899812</v>
+        <v>1.075247329103473</v>
       </c>
       <c r="D6">
-        <v>1.092356528048977</v>
+        <v>1.086726313528665</v>
       </c>
       <c r="E6">
-        <v>1.092483714519827</v>
+        <v>1.079999981817262</v>
       </c>
       <c r="F6">
-        <v>1.103824250229936</v>
+        <v>1.092222803537756</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070535971988043</v>
+        <v>1.086704396781013</v>
       </c>
       <c r="J6">
-        <v>1.094599378744006</v>
+        <v>1.092427556540616</v>
       </c>
       <c r="K6">
-        <v>1.094648799121889</v>
+        <v>1.095644754302262</v>
       </c>
       <c r="L6">
-        <v>1.094775705851037</v>
+        <v>1.088983200079013</v>
       </c>
       <c r="M6">
-        <v>1.106091575227244</v>
+        <v>1.101089026586576</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.089985233383666</v>
+        <v>1.073119484307328</v>
       </c>
       <c r="D7">
-        <v>1.091994401905895</v>
+        <v>1.084963941586224</v>
       </c>
       <c r="E7">
-        <v>1.092091095715464</v>
+        <v>1.078111392329719</v>
       </c>
       <c r="F7">
-        <v>1.103412767642632</v>
+        <v>1.090265936760936</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070369965553977</v>
+        <v>1.085746871144654</v>
       </c>
       <c r="J7">
-        <v>1.094270635889947</v>
+        <v>1.090815774781757</v>
       </c>
       <c r="K7">
-        <v>1.094343896960258</v>
+        <v>1.094131976565762</v>
       </c>
       <c r="L7">
-        <v>1.094440372466914</v>
+        <v>1.087347625800813</v>
       </c>
       <c r="M7">
-        <v>1.105736766652964</v>
+        <v>1.099381918246334</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.088163355009004</v>
+        <v>1.063970015508903</v>
       </c>
       <c r="D8">
-        <v>1.090478565495781</v>
+        <v>1.077389565810908</v>
       </c>
       <c r="E8">
-        <v>1.090447233056691</v>
+        <v>1.069991523824539</v>
       </c>
       <c r="F8">
-        <v>1.10169082764301</v>
+        <v>1.081859188708706</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06967223751798</v>
+        <v>1.081604512025568</v>
       </c>
       <c r="J8">
-        <v>1.092893066923424</v>
+        <v>1.083872391659213</v>
       </c>
       <c r="K8">
-        <v>1.093066053436526</v>
+        <v>1.087614172370478</v>
       </c>
       <c r="L8">
-        <v>1.093034799375435</v>
+        <v>1.080300079784951</v>
       </c>
       <c r="M8">
-        <v>1.104250576100674</v>
+        <v>1.092033760827693</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.084943533962805</v>
+        <v>1.046767923910345</v>
       </c>
       <c r="D9">
-        <v>1.087798876399323</v>
+        <v>1.063167652818139</v>
       </c>
       <c r="E9">
-        <v>1.087539736383977</v>
+        <v>1.054732341190585</v>
       </c>
       <c r="F9">
-        <v>1.09864865809726</v>
+        <v>1.066086967155102</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.068428084321367</v>
+        <v>1.073721701783937</v>
       </c>
       <c r="J9">
-        <v>1.090452223236231</v>
+        <v>1.070770794259728</v>
       </c>
       <c r="K9">
-        <v>1.090801249372904</v>
+        <v>1.075312755086244</v>
       </c>
       <c r="L9">
-        <v>1.090542869471421</v>
+        <v>1.066995726245594</v>
       </c>
       <c r="M9">
-        <v>1.10161955600817</v>
+        <v>1.078191683422276</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.082790291539148</v>
+        <v>1.034447786544479</v>
       </c>
       <c r="D10">
-        <v>1.086006386852132</v>
+        <v>1.052999950297007</v>
       </c>
       <c r="E10">
-        <v>1.085593840315152</v>
+        <v>1.043812832101639</v>
       </c>
       <c r="F10">
-        <v>1.096614941751934</v>
+        <v>1.054818329182747</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.067588634806157</v>
+        <v>1.068014299755589</v>
       </c>
       <c r="J10">
-        <v>1.088815723389464</v>
+        <v>1.061358322149013</v>
       </c>
       <c r="K10">
-        <v>1.089282343476879</v>
+        <v>1.066473957928797</v>
       </c>
       <c r="L10">
-        <v>1.088871126390436</v>
+        <v>1.057433661659256</v>
       </c>
       <c r="M10">
-        <v>1.099857087590932</v>
+        <v>1.068263664807746</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.081856247571994</v>
+        <v>1.028878176829511</v>
       </c>
       <c r="D11">
-        <v>1.085228731714012</v>
+        <v>1.04840900617317</v>
       </c>
       <c r="E11">
-        <v>1.084749383451912</v>
+        <v>1.038879668394096</v>
       </c>
       <c r="F11">
-        <v>1.095732924199066</v>
+        <v>1.049731773730604</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067222734341838</v>
+        <v>1.065420162434587</v>
       </c>
       <c r="J11">
-        <v>1.08810484195476</v>
+        <v>1.057097052724271</v>
       </c>
       <c r="K11">
-        <v>1.088622442699818</v>
+        <v>1.062472309811191</v>
       </c>
       <c r="L11">
-        <v>1.088144699399798</v>
+        <v>1.053103818985836</v>
       </c>
       <c r="M11">
-        <v>1.099091851500841</v>
+        <v>1.06377304746354</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.081509043461105</v>
+        <v>1.026770880252695</v>
       </c>
       <c r="D12">
-        <v>1.084939646304387</v>
+        <v>1.046672962265734</v>
       </c>
       <c r="E12">
-        <v>1.084435427519777</v>
+        <v>1.037013770010245</v>
       </c>
       <c r="F12">
-        <v>1.095405086678063</v>
+        <v>1.047808513930371</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.067086457022163</v>
+        <v>1.064436621360458</v>
       </c>
       <c r="J12">
-        <v>1.087840443207347</v>
+        <v>1.055483926995545</v>
       </c>
       <c r="K12">
-        <v>1.088376990194114</v>
+        <v>1.060957468194661</v>
       </c>
       <c r="L12">
-        <v>1.087874483210818</v>
+        <v>1.051464615606879</v>
       </c>
       <c r="M12">
-        <v>1.098807291440661</v>
+        <v>1.062073724734328</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.081583531733422</v>
+        <v>1.027224700321534</v>
       </c>
       <c r="D13">
-        <v>1.08500166657975</v>
+        <v>1.047046784778866</v>
       </c>
       <c r="E13">
-        <v>1.084502785218741</v>
+        <v>1.037415574740173</v>
       </c>
       <c r="F13">
-        <v>1.095475418850089</v>
+        <v>1.048222641200174</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.067115705562606</v>
+        <v>1.064648523976331</v>
       </c>
       <c r="J13">
-        <v>1.087897173366029</v>
+        <v>1.05583136113491</v>
       </c>
       <c r="K13">
-        <v>1.088429655870355</v>
+        <v>1.061283733516039</v>
       </c>
       <c r="L13">
-        <v>1.087932463187189</v>
+        <v>1.051817671548122</v>
       </c>
       <c r="M13">
-        <v>1.09886834498631</v>
+        <v>1.062439695522693</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.081827552886721</v>
+        <v>1.028704792274455</v>
       </c>
       <c r="D14">
-        <v>1.085204840538085</v>
+        <v>1.048266147205968</v>
       </c>
       <c r="E14">
-        <v>1.084723437646993</v>
+        <v>1.038726132935361</v>
       </c>
       <c r="F14">
-        <v>1.095705829506594</v>
+        <v>1.04957350493409</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067211477091692</v>
+        <v>1.065339279278911</v>
       </c>
       <c r="J14">
-        <v>1.088082993755154</v>
+        <v>1.056964344392198</v>
       </c>
       <c r="K14">
-        <v>1.088602160400636</v>
+        <v>1.062347686928636</v>
       </c>
       <c r="L14">
-        <v>1.088122371210297</v>
+        <v>1.052968967658449</v>
       </c>
       <c r="M14">
-        <v>1.099068336182128</v>
+        <v>1.063633235150301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.081977867902005</v>
+        <v>1.02961152218349</v>
       </c>
       <c r="D15">
-        <v>1.085329992135976</v>
+        <v>1.049013280992524</v>
       </c>
       <c r="E15">
-        <v>1.084859350674372</v>
+        <v>1.03952908507011</v>
       </c>
       <c r="F15">
-        <v>1.09584776419556</v>
+        <v>1.05040123797777</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067270436555801</v>
+        <v>1.065762182687517</v>
       </c>
       <c r="J15">
-        <v>1.088197437859189</v>
+        <v>1.057658320384827</v>
       </c>
       <c r="K15">
-        <v>1.088708401471828</v>
+        <v>1.062999381652399</v>
       </c>
       <c r="L15">
-        <v>1.088239328116084</v>
+        <v>1.053674145309529</v>
       </c>
       <c r="M15">
-        <v>1.099191515148505</v>
+        <v>1.06436438566841</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.082852245072519</v>
+        <v>1.034812209375553</v>
       </c>
       <c r="D16">
-        <v>1.086057965330739</v>
+        <v>1.053300464841517</v>
       </c>
       <c r="E16">
-        <v>1.085649844208363</v>
+        <v>1.044135687946716</v>
       </c>
       <c r="F16">
-        <v>1.096673448252684</v>
+        <v>1.055151314147887</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.067612867311857</v>
+        <v>1.068183751817962</v>
       </c>
       <c r="J16">
-        <v>1.08886285405463</v>
+        <v>1.061637018483826</v>
       </c>
       <c r="K16">
-        <v>1.089326092065071</v>
+        <v>1.066735673910632</v>
       </c>
       <c r="L16">
-        <v>1.088919282731687</v>
+        <v>1.057716825963265</v>
       </c>
       <c r="M16">
-        <v>1.099907829593193</v>
+        <v>1.068557446079368</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.08340026530903</v>
+        <v>1.038009429969365</v>
       </c>
       <c r="D17">
-        <v>1.086514199813277</v>
+        <v>1.05593764046555</v>
       </c>
       <c r="E17">
-        <v>1.086145194799401</v>
+        <v>1.046968604878373</v>
       </c>
       <c r="F17">
-        <v>1.097190997781443</v>
+        <v>1.058073599970554</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.067827016842274</v>
+        <v>1.06966884933641</v>
       </c>
       <c r="J17">
-        <v>1.089279641624419</v>
+        <v>1.064081442869956</v>
       </c>
       <c r="K17">
-        <v>1.089712959486816</v>
+        <v>1.069031156011735</v>
       </c>
       <c r="L17">
-        <v>1.089345113345133</v>
+        <v>1.060200343681684</v>
       </c>
       <c r="M17">
-        <v>1.100356595166452</v>
+        <v>1.071134638182329</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.083719755015804</v>
+        <v>1.039851885401649</v>
       </c>
       <c r="D18">
-        <v>1.086780169730763</v>
+        <v>1.057457878273692</v>
       </c>
       <c r="E18">
-        <v>1.086433944296535</v>
+        <v>1.048601422809061</v>
       </c>
       <c r="F18">
-        <v>1.097492740505547</v>
+        <v>1.059758335214216</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.067951693999116</v>
+        <v>1.070523345183657</v>
       </c>
       <c r="J18">
-        <v>1.089522528464413</v>
+        <v>1.065489503714147</v>
       </c>
       <c r="K18">
-        <v>1.089938400330993</v>
+        <v>1.070353411438888</v>
       </c>
       <c r="L18">
-        <v>1.089593247361876</v>
+        <v>1.06163084307402</v>
       </c>
       <c r="M18">
-        <v>1.10061815263569</v>
+        <v>1.072619556865976</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.083828665608351</v>
+        <v>1.040476401699178</v>
       </c>
       <c r="D19">
-        <v>1.086870834335771</v>
+        <v>1.057973260496512</v>
       </c>
       <c r="E19">
-        <v>1.086532370040521</v>
+        <v>1.049154928440493</v>
       </c>
       <c r="F19">
-        <v>1.097595604227403</v>
+        <v>1.060329509152512</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.06799416631878</v>
+        <v>1.0708127585531</v>
       </c>
       <c r="J19">
-        <v>1.089605309731287</v>
+        <v>1.065966677333413</v>
       </c>
       <c r="K19">
-        <v>1.090015233953675</v>
+        <v>1.070801504479666</v>
       </c>
       <c r="L19">
-        <v>1.089677813129164</v>
+        <v>1.062115606960898</v>
       </c>
       <c r="M19">
-        <v>1.100707303231884</v>
+        <v>1.073122840612138</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.083341484651406</v>
+        <v>1.037668740321068</v>
       </c>
       <c r="D20">
-        <v>1.086465265096753</v>
+        <v>1.055656573417298</v>
       </c>
       <c r="E20">
-        <v>1.086092067044369</v>
+        <v>1.046666702947026</v>
       </c>
       <c r="F20">
-        <v>1.097135483639104</v>
+        <v>1.057762131683824</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.067804064710209</v>
+        <v>1.069510736743017</v>
       </c>
       <c r="J20">
-        <v>1.089234946881591</v>
+        <v>1.063821029744968</v>
       </c>
       <c r="K20">
-        <v>1.089671474276734</v>
+        <v>1.068786611178368</v>
       </c>
       <c r="L20">
-        <v>1.089299451213749</v>
+        <v>1.05993577410293</v>
       </c>
       <c r="M20">
-        <v>1.100308467584741</v>
+        <v>1.070860041282425</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0817557019326</v>
+        <v>1.02827003247313</v>
       </c>
       <c r="D21">
-        <v>1.085145017251644</v>
+        <v>1.047907945994497</v>
       </c>
       <c r="E21">
-        <v>1.084658468978575</v>
+        <v>1.03834115446241</v>
       </c>
       <c r="F21">
-        <v>1.095637985346601</v>
+        <v>1.049176668558705</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.067183284880048</v>
+        <v>1.065136433228461</v>
       </c>
       <c r="J21">
-        <v>1.08802828386827</v>
+        <v>1.056631566390611</v>
       </c>
       <c r="K21">
-        <v>1.088551371429079</v>
+        <v>1.062035184026877</v>
       </c>
       <c r="L21">
-        <v>1.088066458810186</v>
+        <v>1.052630814024895</v>
       </c>
       <c r="M21">
-        <v>1.099009452562809</v>
+        <v>1.063282653366039</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.080757157847673</v>
+        <v>1.022136077611415</v>
       </c>
       <c r="D22">
-        <v>1.084313593747886</v>
+        <v>1.042856633030398</v>
       </c>
       <c r="E22">
-        <v>1.083755445196545</v>
+        <v>1.032911124725992</v>
       </c>
       <c r="F22">
-        <v>1.094695190719549</v>
+        <v>1.043580962630131</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.066790859226767</v>
+        <v>1.062269743620866</v>
       </c>
       <c r="J22">
-        <v>1.087267604020677</v>
+        <v>1.051934532991204</v>
       </c>
       <c r="K22">
-        <v>1.087845172077838</v>
+        <v>1.057624357422055</v>
       </c>
       <c r="L22">
-        <v>1.087288974939132</v>
+        <v>1.047857633948051</v>
       </c>
       <c r="M22">
-        <v>1.098190871706243</v>
+        <v>1.058335838861932</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.081286649388852</v>
+        <v>1.025410271515798</v>
       </c>
       <c r="D23">
-        <v>1.08475447494907</v>
+        <v>1.045552348501748</v>
       </c>
       <c r="E23">
-        <v>1.084234314892657</v>
+        <v>1.03580920566691</v>
       </c>
       <c r="F23">
-        <v>1.095195105197542</v>
+        <v>1.046567104729711</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.06699909314765</v>
+        <v>1.063801018552548</v>
       </c>
       <c r="J23">
-        <v>1.087671046417906</v>
+        <v>1.054442158350974</v>
       </c>
       <c r="K23">
-        <v>1.088219727797427</v>
+        <v>1.059979175381716</v>
       </c>
       <c r="L23">
-        <v>1.087701349238954</v>
+        <v>1.050405973513509</v>
       </c>
       <c r="M23">
-        <v>1.098624993012471</v>
+        <v>1.060976467323541</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.083368045598099</v>
+        <v>1.037822752383994</v>
       </c>
       <c r="D24">
-        <v>1.086487377033222</v>
+        <v>1.05578363090454</v>
       </c>
       <c r="E24">
-        <v>1.086116073746176</v>
+        <v>1.046803179725029</v>
       </c>
       <c r="F24">
-        <v>1.097160568507708</v>
+        <v>1.057902931731379</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.067814436509347</v>
+        <v>1.069582217174741</v>
       </c>
       <c r="J24">
-        <v>1.089255143186169</v>
+        <v>1.063938753840434</v>
       </c>
       <c r="K24">
-        <v>1.089690220313364</v>
+        <v>1.068897161781144</v>
       </c>
       <c r="L24">
-        <v>1.089320084724452</v>
+        <v>1.060055377442924</v>
       </c>
       <c r="M24">
-        <v>1.100330214984585</v>
+        <v>1.070984176211366</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.085777089221581</v>
+        <v>1.051355180540544</v>
       </c>
       <c r="D25">
-        <v>1.088492684425885</v>
+        <v>1.066957515059187</v>
       </c>
       <c r="E25">
-        <v>1.088292705006486</v>
+        <v>1.058800257608996</v>
       </c>
       <c r="F25">
-        <v>1.099436097536459</v>
+        <v>1.070288605096488</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068751481545062</v>
+        <v>1.075834519408587</v>
       </c>
       <c r="J25">
-        <v>1.091084854174533</v>
+        <v>1.074269766253875</v>
       </c>
       <c r="K25">
-        <v>1.091388330432066</v>
+        <v>1.078598286374508</v>
       </c>
       <c r="L25">
-        <v>1.091188915224357</v>
+        <v>1.070549539123639</v>
       </c>
       <c r="M25">
-        <v>1.102301207566204</v>
+        <v>1.081885661248219</v>
       </c>
     </row>
   </sheetData>
